--- a/Content/ExcelFiles/Đề Tài.xlsx
+++ b/Content/ExcelFiles/Đề Tài.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KyThuat88\Documents\TranVietHoang_1621050401\ExcelFile\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NCKH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35E519BA-B71B-4F3F-A746-9DD54CA3A5C0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03B169FB-F652-4E15-8E25-CF5C72C50E87}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{11E5BC55-A675-4BCF-85FF-EBC7FC54CB04}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0F00DBAC-F379-4232-A7CA-6238BA4FD411}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Trang_tính1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="84">
   <si>
     <t>Ma_De_Tai</t>
   </si>
@@ -90,19 +90,175 @@
     <t>PT và TKHT mô tả bài toán XD website đặt Tour du lịch Ivivu.com</t>
   </si>
   <si>
-    <t>MaSinhVien</t>
-  </si>
-  <si>
-    <t>MaGiangVien</t>
-  </si>
-  <si>
-    <t>MaMonHoc</t>
-  </si>
-  <si>
-    <t>LinkFileBaoCao</t>
-  </si>
-  <si>
-    <t>TTSX_8943</t>
+    <t>DT009</t>
+  </si>
+  <si>
+    <t>Kiểm thử phần mềm Smart Office (Module S.Request: Phê duyệt điện tử)</t>
+  </si>
+  <si>
+    <t>DT010</t>
+  </si>
+  <si>
+    <t>Phân tích thiết kế hệ thống quản lý bán hàng Petshop</t>
+  </si>
+  <si>
+    <t>DT011</t>
+  </si>
+  <si>
+    <t>Tìm hiểu kiểm thử ứng dụng Web bằng Katalon Studio và Posman</t>
+  </si>
+  <si>
+    <t>DT012</t>
+  </si>
+  <si>
+    <t>Phân tích và thiết kế dữ liệu hệ thống xây dựng bài toán thiết kế website quản lý nhân sự cho công ty cổ phần thuwng mại và dịch vụ GMAX</t>
+  </si>
+  <si>
+    <t>DT013</t>
+  </si>
+  <si>
+    <t>Phân tích thiêt kế hệ thống quản lý bán hàng Take away</t>
+  </si>
+  <si>
+    <t>DT014</t>
+  </si>
+  <si>
+    <t>Tìm hiểu quy trình QLNS và TL tại công ty CP Everflow</t>
+  </si>
+  <si>
+    <t>DT015</t>
+  </si>
+  <si>
+    <t>Phân tích thiết kế hệ thống quản lý bán hàng điện thoại di động</t>
+  </si>
+  <si>
+    <t>DT016</t>
+  </si>
+  <si>
+    <t>Phân tích thiết kế hệ thống website quản lý bán hàng handmade</t>
+  </si>
+  <si>
+    <t>DT017</t>
+  </si>
+  <si>
+    <t>PT và TKHT bài toán XD website bán đồng hồ</t>
+  </si>
+  <si>
+    <t>DT018</t>
+  </si>
+  <si>
+    <t>PT và TKHT mô tả bài toán XD phần mềm quản lý cửa hàng thuốc Trần Lê Nhân</t>
+  </si>
+  <si>
+    <t>DT019</t>
+  </si>
+  <si>
+    <t>PT và TKHT cho website bán sách</t>
+  </si>
+  <si>
+    <t>DT023</t>
+  </si>
+  <si>
+    <t>Nghiên cứu XD trang TMĐT bất động sản VinHomes Land</t>
+  </si>
+  <si>
+    <t>DT024</t>
+  </si>
+  <si>
+    <t>XD hệ thống quản lý thủ tục hành chính công</t>
+  </si>
+  <si>
+    <t>DT026</t>
+  </si>
+  <si>
+    <t>Nghiên cứu XD website quản lý bán hàng máy tính, áp dụng cho công ty TNHH Tin học Mai Hoàng</t>
+  </si>
+  <si>
+    <t>DT028</t>
+  </si>
+  <si>
+    <t>PT và TKHT cho bài toán xây dựng và áp dụng kĩ thuật SEO website cho công ty CP đầu tư và XD Toàn Gia Phát</t>
+  </si>
+  <si>
+    <t>DT029</t>
+  </si>
+  <si>
+    <t>PT và TKHT cho bài toán xây dựng hệ thống tiếp nhận, xử lý thủ tục hành chính cho SV trường ĐH Mỏ địa chất</t>
+  </si>
+  <si>
+    <t>DT030</t>
+  </si>
+  <si>
+    <t>Nghiên cứu XD Website quản lý sách, ứng dụng cho Bookstore</t>
+  </si>
+  <si>
+    <t>DT032</t>
+  </si>
+  <si>
+    <t>PT và TKHT cho bài toán XD website quản lý tour du lịch cho Cty TNHH xúc tiến TM và du lịch Ats</t>
+  </si>
+  <si>
+    <t>DT033</t>
+  </si>
+  <si>
+    <t>Nghiên cứu XD website quản lý bán hàng phụ kiện thú cưng the Hamstershop</t>
+  </si>
+  <si>
+    <t>DT034</t>
+  </si>
+  <si>
+    <t>Xây dựng website bán hàng đồ gia dụng</t>
+  </si>
+  <si>
+    <t>DT035</t>
+  </si>
+  <si>
+    <t>PTTK và XD CSDL cho phần mềm quản lý kho thuốc của công ty Dược phẩm Ích Nhân</t>
+  </si>
+  <si>
+    <t>DT036</t>
+  </si>
+  <si>
+    <t>PT và TKHT cho bài toán xây dựng website tìm kiếm phòng trọ trực tuyến</t>
+  </si>
+  <si>
+    <t>DT037</t>
+  </si>
+  <si>
+    <t>XD phần mềm QLBH cho cửa hàng giày dép có sử dụng API của Facebook</t>
+  </si>
+  <si>
+    <t>DT038</t>
+  </si>
+  <si>
+    <t>Nghiên cứu XD phần mềm quản lý NS-TL, áp dụng cho công ty CP EverFlow</t>
+  </si>
+  <si>
+    <t>DT039</t>
+  </si>
+  <si>
+    <t>Xây dựng website bán VPP cho công ty CP đầu tư TM và CN BKT</t>
+  </si>
+  <si>
+    <t>DT040</t>
+  </si>
+  <si>
+    <t>XD mô hình giới thiệu và bán điện thoại di động đề mô cho công ty CP thế giới di động</t>
+  </si>
+  <si>
+    <t>DT041</t>
+  </si>
+  <si>
+    <t>PTTK website quản lý đồ án tốt nghiệp sinh viên Khoa Công nghệ Thông tin</t>
+  </si>
+  <si>
+    <t>Ma Sinh Vien</t>
+  </si>
+  <si>
+    <t>Ma Giang Vien</t>
+  </si>
+  <si>
+    <t>Ma Mon Hoc</t>
   </si>
   <si>
     <t>0801-01</t>
@@ -115,55 +271,70 @@
   </si>
   <si>
     <t>0808-01</t>
+  </si>
+  <si>
+    <t>0802-01</t>
+  </si>
+  <si>
+    <t>0804-01</t>
+  </si>
+  <si>
+    <t>0806-01</t>
+  </si>
+  <si>
+    <t>0807-01</t>
+  </si>
+  <si>
+    <t>TTSX-001</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color indexed="8"/>
       <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
-      <name val="&quot;Times New Roman&quot;"/>
+      <color indexed="8"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF000000"/>
+      <color indexed="8"/>
       <name val="&quot;Times New Roman&quot;"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <color indexed="8"/>
+      <name val="Times"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Times"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF212529"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
+      <color indexed="8"/>
+      <name val="&quot;Times New Roman&quot;"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -176,11 +347,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -204,17 +375,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color rgb="FF000000"/>
@@ -226,23 +386,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{9C205963-C9A0-4E05-BA09-87D1D5E0EDF7}"/>
+  <cellStyles count="1">
+    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -258,7 +417,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Chủ đề Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -553,180 +712,902 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{370B70E3-5BB9-4C50-BF96-A1AF46068CA6}">
-  <dimension ref="A1:F9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72261EDA-3097-42A9-990D-4A998618BF68}">
+  <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" customWidth="1"/>
-    <col min="2" max="2" width="71" customWidth="1"/>
-    <col min="3" max="3" width="34.109375" customWidth="1"/>
-    <col min="4" max="4" width="40.77734375" customWidth="1"/>
-    <col min="5" max="5" width="19.44140625" customWidth="1"/>
+    <col min="2" max="2" width="23.69921875" customWidth="1"/>
+    <col min="3" max="3" width="23.09765625" customWidth="1"/>
+    <col min="4" max="4" width="23" customWidth="1"/>
+    <col min="5" max="5" width="29.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="14.4">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="1" customFormat="1" ht="16.2">
+      <c r="A2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="7">
+        <v>1721030108</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="1" customFormat="1" ht="16.2">
+      <c r="A3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="7">
+        <v>1821050621</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="1" customFormat="1" ht="16.2">
+      <c r="A4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="7">
+        <v>1821050975</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="1" customFormat="1" ht="16.2">
+      <c r="A5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="7">
+        <v>1821051019</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="1" customFormat="1" ht="16.2">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="7">
+        <v>1821050899</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="1" customFormat="1" ht="16.2">
+      <c r="A7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="7">
+        <v>1821050025</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="1" customFormat="1" ht="16.2">
+      <c r="A8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="7">
+        <v>1821050962</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" s="1" customFormat="1" ht="16.2">
+      <c r="A9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="7">
+        <v>1821050816</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" s="1" customFormat="1" ht="16.2">
+      <c r="A10" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B10" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="C10" s="7">
+        <v>1821051004</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" s="1" customFormat="1" ht="16.2">
+      <c r="A11" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="B11" s="4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="16.2">
-      <c r="A2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="5">
-        <v>1721030108</v>
-      </c>
-      <c r="D2" s="7" t="s">
+      <c r="C11" s="8">
+        <v>1721050319</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" s="1" customFormat="1" ht="16.2">
+      <c r="A12" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="16.2">
-      <c r="A3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="5">
-        <v>1821050621</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="16.2">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="5">
-        <v>1821050975</v>
-      </c>
-      <c r="D4" s="7" t="s">
+      <c r="C12" s="8">
+        <v>1721050290</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" s="1" customFormat="1" ht="16.2">
+      <c r="A13" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="16.2">
-      <c r="A5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="5">
-        <v>1821051019</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="16.2">
-      <c r="A6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="5">
-        <v>1821050899</v>
-      </c>
-      <c r="D6" s="7" t="s">
+      <c r="B13" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="16.2">
-      <c r="A7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="5">
-        <v>1821050025</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="16.2">
-      <c r="A8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="5">
-        <v>1821050962</v>
-      </c>
-      <c r="D8" s="7" t="s">
+      <c r="C13" s="8">
+        <v>1621050322</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" s="1" customFormat="1" ht="16.2">
+      <c r="A14" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="16.2">
-      <c r="A9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="5">
-        <v>1821050816</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>22</v>
+      <c r="B14" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="8">
+        <v>1621050260</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" s="1" customFormat="1" ht="16.2">
+      <c r="A15" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="8">
+        <v>1621050262</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" s="1" customFormat="1" ht="16.2">
+      <c r="A16" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="8">
+        <v>1621050298</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" s="1" customFormat="1" ht="16.2">
+      <c r="A17" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="8">
+        <v>1621050351</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" s="1" customFormat="1" ht="16.2">
+      <c r="A18" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="8">
+        <v>1621050152</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" s="1" customFormat="1" ht="16.2">
+      <c r="A19" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="8">
+        <v>1621050525</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" s="1" customFormat="1" ht="16.2">
+      <c r="A20" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="8">
+        <v>1621050083</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" s="1" customFormat="1" ht="16.2">
+      <c r="A21" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="8">
+        <v>1621050058</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" s="1" customFormat="1" ht="16.2">
+      <c r="A22" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="8">
+        <v>1621050422</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" s="1" customFormat="1" ht="16.2">
+      <c r="A23" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" s="8">
+        <v>1621050834</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" s="1" customFormat="1" ht="16.2">
+      <c r="A24" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" s="8">
+        <v>1621050281</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" s="1" customFormat="1" ht="16.2">
+      <c r="A25" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" s="8">
+        <v>1621050753</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" s="1" customFormat="1" ht="16.2">
+      <c r="A26" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" s="8">
+        <v>1621050188</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" s="1" customFormat="1" ht="16.2">
+      <c r="A27" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C27" s="8">
+        <v>1621050283</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" s="1" customFormat="1" ht="16.2">
+      <c r="A28" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C28" s="8">
+        <v>1621050113</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" s="1" customFormat="1" ht="16.2">
+      <c r="A29" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C29" s="8">
+        <v>1621050203</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" s="1" customFormat="1" ht="16.2">
+      <c r="A30" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C30" s="8">
+        <v>1621050384</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" s="1" customFormat="1" ht="16.2">
+      <c r="A31" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C31" s="8">
+        <v>1621050817</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" s="1" customFormat="1" ht="16.2">
+      <c r="A32" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C32" s="8">
+        <v>1621050210</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" s="1" customFormat="1" ht="16.2">
+      <c r="A33" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C33" s="8">
+        <v>1621050434</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" s="1" customFormat="1" ht="16.2">
+      <c r="A34" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C34" s="8">
+        <v>1621050240</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" s="1" customFormat="1" ht="16.2">
+      <c r="A35" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C35" s="8">
+        <v>1621050729</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" s="1" customFormat="1" ht="16.2">
+      <c r="A36" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C36" s="8">
+        <v>1621050798</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101007D95B16DD871624EA1D5E381CEA5FAED" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="aff1b92691ede7c5129c499b04389485">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="bd06b173-aa47-468b-866f-66c32cbfd5f4" xmlns:ns4="59b39aaa-c499-4209-abb4-e9186a54f791" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3d9e083e697b125af1a2df9d2f97a72e" ns3:_="" ns4:_="">
+    <xsd:import namespace="bd06b173-aa47-468b-866f-66c32cbfd5f4"/>
+    <xsd:import namespace="59b39aaa-c499-4209-abb4-e9186a54f791"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns4:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns4:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns4:SharingHintHash" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaLengthInSeconds" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="bd06b173-aa47-468b-866f-66c32cbfd5f4" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="13" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="14" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="15" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="16" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="17" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="18" nillable="true" ma:displayName="Length (seconds)" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="59b39aaa-c499-4209-abb4-e9186a54f791" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="10" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="11" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="SharingHintHash" ma:index="12" nillable="true" ma:displayName="Sharing Hint Hash" ma:hidden="true" ma:internalName="SharingHintHash" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{46FC8D39-78A6-453E-8BF9-7A732C9331F1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36299E22-80E4-4CFE-A7F2-F356A59460DB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="bd06b173-aa47-468b-866f-66c32cbfd5f4"/>
+    <ds:schemaRef ds:uri="59b39aaa-c499-4209-abb4-e9186a54f791"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0B0B79C7-091B-4966-B67E-365736263599}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="59b39aaa-c499-4209-abb4-e9186a54f791"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="bd06b173-aa47-468b-866f-66c32cbfd5f4"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Content/ExcelFiles/Đề Tài.xlsx
+++ b/Content/ExcelFiles/Đề Tài.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NCKH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03B169FB-F652-4E15-8E25-CF5C72C50E87}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E42EF329-3FB8-46D2-AEA5-96E54DE4264B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0F00DBAC-F379-4232-A7CA-6238BA4FD411}"/>
   </bookViews>
@@ -716,7 +716,7 @@
   <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>

--- a/Content/ExcelFiles/Đề Tài.xlsx
+++ b/Content/ExcelFiles/Đề Tài.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NCKH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KyThuat88\Documents\TranVietHoang_1621050401\NCKHExcelFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E42EF329-3FB8-46D2-AEA5-96E54DE4264B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{998161E1-65D8-4E06-980D-525587B6B31C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0F00DBAC-F379-4232-A7CA-6238BA4FD411}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="81">
   <si>
     <t>Ma_De_Tai</t>
   </si>
@@ -274,15 +274,6 @@
   </si>
   <si>
     <t>0802-01</t>
-  </si>
-  <si>
-    <t>0804-01</t>
-  </si>
-  <si>
-    <t>0806-01</t>
-  </si>
-  <si>
-    <t>0807-01</t>
   </si>
   <si>
     <t>TTSX-001</t>
@@ -292,11 +283,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -335,6 +326,12 @@
       <color indexed="8"/>
       <name val="&quot;Times New Roman&quot;"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -396,12 +393,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -417,7 +414,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Chủ đề Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -716,18 +713,18 @@
   <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="D2" sqref="D2:D36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="23.69921875" customWidth="1"/>
-    <col min="3" max="3" width="23.09765625" customWidth="1"/>
+    <col min="2" max="2" width="23.6640625" customWidth="1"/>
+    <col min="3" max="3" width="23.109375" customWidth="1"/>
     <col min="4" max="4" width="23" customWidth="1"/>
-    <col min="5" max="5" width="29.3984375" customWidth="1"/>
+    <col min="5" max="5" width="29.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="14.4">
+    <row r="1" spans="1:5" s="1" customFormat="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -758,7 +755,7 @@
         <v>75</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="1" customFormat="1" ht="16.2">
@@ -772,10 +769,10 @@
         <v>1821050621</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="1" customFormat="1" ht="16.2">
@@ -789,10 +786,10 @@
         <v>1821050975</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="1" customFormat="1" ht="16.2">
@@ -806,10 +803,10 @@
         <v>1821051019</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:5" s="1" customFormat="1" ht="16.2">
@@ -823,10 +820,10 @@
         <v>1821050899</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:5" s="1" customFormat="1" ht="16.2">
@@ -840,10 +837,10 @@
         <v>1821050025</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:5" s="1" customFormat="1" ht="16.2">
@@ -857,10 +854,10 @@
         <v>1821050962</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:5" s="1" customFormat="1" ht="16.2">
@@ -874,10 +871,10 @@
         <v>1821050816</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:5" s="1" customFormat="1" ht="16.2">
@@ -891,10 +888,10 @@
         <v>1821051004</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:5" s="1" customFormat="1" ht="16.2">
@@ -911,7 +908,7 @@
         <v>76</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:5" s="1" customFormat="1" ht="16.2">
@@ -925,10 +922,10 @@
         <v>1721050290</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:5" s="1" customFormat="1" ht="16.2">
@@ -942,10 +939,10 @@
         <v>1621050322</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:5" s="1" customFormat="1" ht="16.2">
@@ -959,10 +956,10 @@
         <v>1621050260</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:5" s="1" customFormat="1" ht="16.2">
@@ -976,10 +973,10 @@
         <v>1621050262</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:5" s="1" customFormat="1" ht="16.2">
@@ -993,10 +990,10 @@
         <v>1621050298</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:5" s="1" customFormat="1" ht="16.2">
@@ -1010,10 +1007,10 @@
         <v>1621050351</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:5" s="1" customFormat="1" ht="16.2">
@@ -1027,10 +1024,10 @@
         <v>1621050152</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19" spans="1:5" s="1" customFormat="1" ht="16.2">
@@ -1044,10 +1041,10 @@
         <v>1621050525</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20" spans="1:5" s="1" customFormat="1" ht="16.2">
@@ -1064,7 +1061,7 @@
         <v>77</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21" spans="1:5" s="1" customFormat="1" ht="16.2">
@@ -1078,10 +1075,10 @@
         <v>1621050058</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22" spans="1:5" s="1" customFormat="1" ht="16.2">
@@ -1095,10 +1092,10 @@
         <v>1621050422</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="23" spans="1:5" s="1" customFormat="1" ht="16.2">
@@ -1112,10 +1109,10 @@
         <v>1621050834</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24" spans="1:5" s="1" customFormat="1" ht="16.2">
@@ -1129,10 +1126,10 @@
         <v>1621050281</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="25" spans="1:5" s="1" customFormat="1" ht="16.2">
@@ -1146,10 +1143,10 @@
         <v>1621050753</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="26" spans="1:5" s="1" customFormat="1" ht="16.2">
@@ -1163,10 +1160,10 @@
         <v>1621050188</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27" spans="1:5" s="1" customFormat="1" ht="16.2">
@@ -1180,10 +1177,10 @@
         <v>1621050283</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28" spans="1:5" s="1" customFormat="1" ht="16.2">
@@ -1197,10 +1194,10 @@
         <v>1621050113</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29" spans="1:5" s="1" customFormat="1" ht="16.2">
@@ -1217,7 +1214,7 @@
         <v>78</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="30" spans="1:5" s="1" customFormat="1" ht="16.2">
@@ -1234,7 +1231,7 @@
         <v>79</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="31" spans="1:5" s="1" customFormat="1" ht="16.2">
@@ -1248,10 +1245,10 @@
         <v>1621050817</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="32" spans="1:5" s="1" customFormat="1" ht="16.2">
@@ -1265,10 +1262,10 @@
         <v>1621050210</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="33" spans="1:5" s="1" customFormat="1" ht="16.2">
@@ -1282,10 +1279,10 @@
         <v>1621050434</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="34" spans="1:5" s="1" customFormat="1" ht="16.2">
@@ -1299,10 +1296,10 @@
         <v>1621050240</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="35" spans="1:5" s="1" customFormat="1" ht="16.2">
@@ -1316,10 +1313,10 @@
         <v>1621050729</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="36" spans="1:5" s="1" customFormat="1" ht="16.2">
@@ -1333,27 +1330,19 @@
         <v>1621050798</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101007D95B16DD871624EA1D5E381CEA5FAED" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="aff1b92691ede7c5129c499b04389485">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="bd06b173-aa47-468b-866f-66c32cbfd5f4" xmlns:ns4="59b39aaa-c499-4209-abb4-e9186a54f791" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3d9e083e697b125af1a2df9d2f97a72e" ns3:_="" ns4:_="">
     <xsd:import namespace="bd06b173-aa47-468b-866f-66c32cbfd5f4"/>
@@ -1562,6 +1551,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -1569,14 +1567,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{46FC8D39-78A6-453E-8BF9-7A732C9331F1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36299E22-80E4-4CFE-A7F2-F356A59460DB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1591,6 +1581,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{46FC8D39-78A6-453E-8BF9-7A732C9331F1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Content/ExcelFiles/Đề Tài.xlsx
+++ b/Content/ExcelFiles/Đề Tài.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KyThuat88\Documents\TranVietHoang_1621050401\NCKHExcelFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{998161E1-65D8-4E06-980D-525587B6B31C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8114F78A-B5E0-4FD8-9C5E-5A94F79EADEF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0F00DBAC-F379-4232-A7CA-6238BA4FD411}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="81">
   <si>
     <t>Ma_De_Tai</t>
   </si>
@@ -264,19 +264,19 @@
     <t>0801-01</t>
   </si>
   <si>
-    <t>0805-01</t>
-  </si>
-  <si>
-    <t>0803-01</t>
-  </si>
-  <si>
-    <t>0808-01</t>
-  </si>
-  <si>
-    <t>0802-01</t>
-  </si>
-  <si>
     <t>TTSX-001</t>
+  </si>
+  <si>
+    <t>0801-02</t>
+  </si>
+  <si>
+    <t>0801-03</t>
+  </si>
+  <si>
+    <t>0801-04</t>
+  </si>
+  <si>
+    <t>0801-05</t>
   </si>
 </sst>
 </file>
@@ -386,7 +386,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
@@ -396,6 +396,8 @@
     <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -713,11 +715,12 @@
   <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D36"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
+    <col min="1" max="1" width="16.109375" customWidth="1"/>
     <col min="2" max="2" width="23.6640625" customWidth="1"/>
     <col min="3" max="3" width="23.109375" customWidth="1"/>
     <col min="4" max="4" width="23" customWidth="1"/>
@@ -755,7 +758,7 @@
         <v>75</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="1" customFormat="1" ht="16.2">
@@ -772,7 +775,7 @@
         <v>75</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="1" customFormat="1" ht="16.2">
@@ -789,7 +792,7 @@
         <v>75</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="1" customFormat="1" ht="16.2">
@@ -806,7 +809,7 @@
         <v>75</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:5" s="1" customFormat="1" ht="16.2">
@@ -823,7 +826,7 @@
         <v>75</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:5" s="1" customFormat="1" ht="16.2">
@@ -840,7 +843,7 @@
         <v>75</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:5" s="1" customFormat="1" ht="16.2">
@@ -857,7 +860,7 @@
         <v>75</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:5" s="1" customFormat="1" ht="16.2">
@@ -870,11 +873,11 @@
       <c r="C9" s="7">
         <v>1821050816</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>76</v>
+      <c r="D9" s="9" t="s">
+        <v>77</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:5" s="1" customFormat="1" ht="16.2">
@@ -887,11 +890,11 @@
       <c r="C10" s="7">
         <v>1821051004</v>
       </c>
-      <c r="D10" s="6" t="s">
-        <v>76</v>
+      <c r="D10" s="9" t="s">
+        <v>77</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:5" s="1" customFormat="1" ht="16.2">
@@ -904,11 +907,11 @@
       <c r="C11" s="8">
         <v>1721050319</v>
       </c>
-      <c r="D11" s="6" t="s">
-        <v>76</v>
+      <c r="D11" s="9" t="s">
+        <v>77</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:5" s="1" customFormat="1" ht="16.2">
@@ -921,11 +924,11 @@
       <c r="C12" s="8">
         <v>1721050290</v>
       </c>
-      <c r="D12" s="6" t="s">
-        <v>76</v>
+      <c r="D12" s="9" t="s">
+        <v>77</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:5" s="1" customFormat="1" ht="16.2">
@@ -938,11 +941,11 @@
       <c r="C13" s="8">
         <v>1621050322</v>
       </c>
-      <c r="D13" s="6" t="s">
-        <v>76</v>
+      <c r="D13" s="9" t="s">
+        <v>77</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:5" s="1" customFormat="1" ht="16.2">
@@ -955,11 +958,11 @@
       <c r="C14" s="8">
         <v>1621050260</v>
       </c>
-      <c r="D14" s="6" t="s">
-        <v>76</v>
+      <c r="D14" s="9" t="s">
+        <v>77</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:5" s="1" customFormat="1" ht="16.2">
@@ -972,11 +975,11 @@
       <c r="C15" s="8">
         <v>1621050262</v>
       </c>
-      <c r="D15" s="6" t="s">
-        <v>76</v>
+      <c r="D15" s="9" t="s">
+        <v>77</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16" spans="1:5" s="1" customFormat="1" ht="16.2">
@@ -989,11 +992,11 @@
       <c r="C16" s="8">
         <v>1621050298</v>
       </c>
-      <c r="D16" s="6" t="s">
-        <v>77</v>
+      <c r="D16" s="10" t="s">
+        <v>78</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:5" s="1" customFormat="1" ht="16.2">
@@ -1006,11 +1009,11 @@
       <c r="C17" s="8">
         <v>1621050351</v>
       </c>
-      <c r="D17" s="6" t="s">
-        <v>77</v>
+      <c r="D17" s="10" t="s">
+        <v>78</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:5" s="1" customFormat="1" ht="16.2">
@@ -1023,11 +1026,11 @@
       <c r="C18" s="8">
         <v>1621050152</v>
       </c>
-      <c r="D18" s="6" t="s">
-        <v>77</v>
+      <c r="D18" s="10" t="s">
+        <v>78</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:5" s="1" customFormat="1" ht="16.2">
@@ -1040,11 +1043,11 @@
       <c r="C19" s="8">
         <v>1621050525</v>
       </c>
-      <c r="D19" s="6" t="s">
-        <v>77</v>
+      <c r="D19" s="10" t="s">
+        <v>78</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20" spans="1:5" s="1" customFormat="1" ht="16.2">
@@ -1057,11 +1060,11 @@
       <c r="C20" s="8">
         <v>1621050083</v>
       </c>
-      <c r="D20" s="6" t="s">
-        <v>77</v>
+      <c r="D20" s="10" t="s">
+        <v>78</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:5" s="1" customFormat="1" ht="16.2">
@@ -1074,11 +1077,11 @@
       <c r="C21" s="8">
         <v>1621050058</v>
       </c>
-      <c r="D21" s="6" t="s">
-        <v>77</v>
+      <c r="D21" s="10" t="s">
+        <v>78</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22" spans="1:5" s="1" customFormat="1" ht="16.2">
@@ -1091,11 +1094,11 @@
       <c r="C22" s="8">
         <v>1621050422</v>
       </c>
-      <c r="D22" s="6" t="s">
-        <v>77</v>
+      <c r="D22" s="10" t="s">
+        <v>78</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23" spans="1:5" s="1" customFormat="1" ht="16.2">
@@ -1108,11 +1111,11 @@
       <c r="C23" s="8">
         <v>1621050834</v>
       </c>
-      <c r="D23" s="6" t="s">
-        <v>78</v>
+      <c r="D23" s="10" t="s">
+        <v>79</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24" spans="1:5" s="1" customFormat="1" ht="16.2">
@@ -1125,11 +1128,11 @@
       <c r="C24" s="8">
         <v>1621050281</v>
       </c>
-      <c r="D24" s="6" t="s">
-        <v>78</v>
+      <c r="D24" s="10" t="s">
+        <v>79</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="25" spans="1:5" s="1" customFormat="1" ht="16.2">
@@ -1142,11 +1145,11 @@
       <c r="C25" s="8">
         <v>1621050753</v>
       </c>
-      <c r="D25" s="6" t="s">
-        <v>78</v>
+      <c r="D25" s="10" t="s">
+        <v>79</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="26" spans="1:5" s="1" customFormat="1" ht="16.2">
@@ -1159,11 +1162,11 @@
       <c r="C26" s="8">
         <v>1621050188</v>
       </c>
-      <c r="D26" s="6" t="s">
-        <v>78</v>
+      <c r="D26" s="10" t="s">
+        <v>79</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="27" spans="1:5" s="1" customFormat="1" ht="16.2">
@@ -1176,11 +1179,11 @@
       <c r="C27" s="8">
         <v>1621050283</v>
       </c>
-      <c r="D27" s="6" t="s">
-        <v>78</v>
+      <c r="D27" s="10" t="s">
+        <v>79</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="28" spans="1:5" s="1" customFormat="1" ht="16.2">
@@ -1193,11 +1196,11 @@
       <c r="C28" s="8">
         <v>1621050113</v>
       </c>
-      <c r="D28" s="6" t="s">
-        <v>78</v>
+      <c r="D28" s="10" t="s">
+        <v>79</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="29" spans="1:5" s="1" customFormat="1" ht="16.2">
@@ -1210,11 +1213,11 @@
       <c r="C29" s="8">
         <v>1621050203</v>
       </c>
-      <c r="D29" s="6" t="s">
-        <v>78</v>
+      <c r="D29" s="10" t="s">
+        <v>79</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="30" spans="1:5" s="1" customFormat="1" ht="16.2">
@@ -1227,11 +1230,11 @@
       <c r="C30" s="8">
         <v>1621050384</v>
       </c>
-      <c r="D30" s="6" t="s">
-        <v>79</v>
+      <c r="D30" s="9" t="s">
+        <v>80</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="31" spans="1:5" s="1" customFormat="1" ht="16.2">
@@ -1244,11 +1247,11 @@
       <c r="C31" s="8">
         <v>1621050817</v>
       </c>
-      <c r="D31" s="6" t="s">
-        <v>79</v>
+      <c r="D31" s="9" t="s">
+        <v>80</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="32" spans="1:5" s="1" customFormat="1" ht="16.2">
@@ -1261,11 +1264,11 @@
       <c r="C32" s="8">
         <v>1621050210</v>
       </c>
-      <c r="D32" s="6" t="s">
-        <v>79</v>
+      <c r="D32" s="9" t="s">
+        <v>80</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="33" spans="1:5" s="1" customFormat="1" ht="16.2">
@@ -1278,11 +1281,11 @@
       <c r="C33" s="8">
         <v>1621050434</v>
       </c>
-      <c r="D33" s="6" t="s">
-        <v>79</v>
+      <c r="D33" s="9" t="s">
+        <v>80</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="34" spans="1:5" s="1" customFormat="1" ht="16.2">
@@ -1295,11 +1298,11 @@
       <c r="C34" s="8">
         <v>1621050240</v>
       </c>
-      <c r="D34" s="6" t="s">
-        <v>79</v>
+      <c r="D34" s="9" t="s">
+        <v>80</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="35" spans="1:5" s="1" customFormat="1" ht="16.2">
@@ -1312,11 +1315,11 @@
       <c r="C35" s="8">
         <v>1621050729</v>
       </c>
-      <c r="D35" s="6" t="s">
-        <v>79</v>
+      <c r="D35" s="9" t="s">
+        <v>80</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="36" spans="1:5" s="1" customFormat="1" ht="16.2">
@@ -1329,11 +1332,11 @@
       <c r="C36" s="8">
         <v>1621050798</v>
       </c>
-      <c r="D36" s="6" t="s">
-        <v>79</v>
+      <c r="D36" s="9" t="s">
+        <v>80</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -1343,6 +1346,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101007D95B16DD871624EA1D5E381CEA5FAED" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="aff1b92691ede7c5129c499b04389485">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="bd06b173-aa47-468b-866f-66c32cbfd5f4" xmlns:ns4="59b39aaa-c499-4209-abb4-e9186a54f791" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3d9e083e697b125af1a2df9d2f97a72e" ns3:_="" ns4:_="">
     <xsd:import namespace="bd06b173-aa47-468b-866f-66c32cbfd5f4"/>
@@ -1551,15 +1563,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -1567,6 +1570,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{46FC8D39-78A6-453E-8BF9-7A732C9331F1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36299E22-80E4-4CFE-A7F2-F356A59460DB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1581,14 +1592,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{46FC8D39-78A6-453E-8BF9-7A732C9331F1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
